--- a/Képek/Viktoria/6.nap/6_nap.xlsx
+++ b/Képek/Viktoria/6.nap/6_nap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apalo\Desktop\All\aaIskolai\2.év\2felev\kutatas\Gamification\Képek\Viktoria\6.nap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F232107C-D23D-4BC2-A99F-7842B187BB62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93ABB9D5-9017-4CB3-AC63-40ECEF36548D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2025" windowWidth="15375" windowHeight="7875" xr2:uid="{3069A29F-2C0E-4010-9725-F914A5D5C305}"/>
+    <workbookView xWindow="3465" yWindow="1380" windowWidth="15375" windowHeight="7875" xr2:uid="{3069A29F-2C0E-4010-9725-F914A5D5C305}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,13 +730,22 @@
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7</v>
+      </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5">
+        <f>SUM(F2:F9)</f>
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
